--- a/excel_templates/출고처리_template.xlsx
+++ b/excel_templates/출고처리_template.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98069604-C453-4E18-8225-9F3A0A0ABDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2760" yWindow="3210" windowWidth="21810" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>거래구분</t>
   </si>
@@ -275,25 +279,57 @@
   </si>
   <si>
     <t>타입 : 문자 길이 : 12 필수 : False 설명 : 영문/숫자 기준 12자리(최대)를 입력 하세요.</t>
+  </si>
+  <si>
+    <t>사업장코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIV_CD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시엔 삭제처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -317,8 +353,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd3d3d3"/>
-        <bgColor rgb="FFd3d3d3"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -349,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -364,9 +400,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,273 +741,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="13" width="20" style="3" customWidth="1"/>
-    <col min="14" max="14" width="20" style="1" customWidth="1"/>
-    <col min="15" max="16" width="20" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="24" width="20" style="4" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
-    <col min="26" max="30" width="20" style="3" customWidth="1"/>
-    <col min="31" max="31" width="20" style="4" customWidth="1"/>
-    <col min="32" max="32" width="20" style="3" customWidth="1"/>
-    <col min="33" max="33" width="20" style="4" customWidth="1"/>
-    <col min="34" max="34" width="20" style="3" customWidth="1"/>
-    <col min="35" max="35" width="20" style="4" customWidth="1"/>
+    <col min="1" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="14" width="20" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20" style="1" customWidth="1"/>
+    <col min="16" max="17" width="20" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20" style="3" customWidth="1"/>
+    <col min="19" max="25" width="20" style="4" customWidth="1"/>
+    <col min="26" max="26" width="20" style="1" customWidth="1"/>
+    <col min="27" max="31" width="20" style="3" customWidth="1"/>
+    <col min="32" max="32" width="20" style="4" customWidth="1"/>
+    <col min="33" max="33" width="20" style="3" customWidth="1"/>
+    <col min="34" max="34" width="20" style="4" customWidth="1"/>
+    <col min="35" max="35" width="20" style="3" customWidth="1"/>
+    <col min="36" max="36" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:36" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>78</v>
@@ -977,28 +1027,28 @@
         <v>78</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>83</v>
@@ -1007,47 +1057,51 @@
         <v>83</v>
       </c>
       <c r="W3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AC3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>